--- a/export/Zabiegi.xlsx
+++ b/export/Zabiegi.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -800,6 +800,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45099</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>